--- a/biology/Médecine/Ministère_de_la_Santé_(Ukraine)/Ministère_de_la_Santé_(Ukraine).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Ukraine)/Ministère_de_la_Santé_(Ukraine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Ukraine)</t>
+          <t>Ministère_de_la_Santé_(Ukraine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère de la Santé (ukrainien : Міністерство охорони здоров'я України (МОЗ en fr MOZ)) est un ministère du gouvernement ukrainien créé le 24 septembre 1991[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère de la Santé (ukrainien : Міністерство охорони здоров'я України (МОЗ en fr MOZ)) est un ministère du gouvernement ukrainien créé le 24 septembre 1991.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Ukraine)</t>
+          <t>Ministère_de_la_Santé_(Ukraine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère se situe au 7 de la rue Hroucheski dans un bâtiment classé[2]. En 1917, avec la formation de la Rada centrale, le gouvernement se dote d'une structure  de gestion des affaires médicales puis, en 1918 avec l'installation de l'Hetmanat est réorganisé. En 1928 le réseau de stations sanitaires se développe en Ukraine et à partir de 1991 avec l'indépendance une nouvelle organisation naissait.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère se situe au 7 de la rue Hroucheski dans un bâtiment classé. En 1917, avec la formation de la Rada centrale, le gouvernement se dote d'une structure  de gestion des affaires médicales puis, en 1918 avec l'installation de l'Hetmanat est réorganisé. En 1928 le réseau de stations sanitaires se développe en Ukraine et à partir de 1991 avec l'indépendance une nouvelle organisation naissait.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Ukraine)</t>
+          <t>Ministère_de_la_Santé_(Ukraine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les ministres
-Depuis le 20 mai 2021 : Viktor Liachko
+          <t>Les ministres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Depuis le 20 mai 2021 : Viktor Liachko
 30 mars 2020 - mai 2021 : Maksym Stepanov
 4 mars 2020 - 30 mars 2020 : Illia Yemets
 29 août 2019 - 4 mars 2020 : Zoryana Skaletska
